--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_72.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_72.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3404</v>
+        <v>2.7986</v>
       </c>
       <c r="J3" t="n">
-        <v>26.53</v>
+        <v>41.41</v>
       </c>
       <c r="K3" t="n">
-        <v>1114.69</v>
+        <v>2080.67</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.76</v>
+        <v>1.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1127.4363</v>
+        <v>1431.4855</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.076</v>
+        <v>2.5791</v>
       </c>
       <c r="J4" t="n">
-        <v>25.87</v>
+        <v>26.52</v>
       </c>
       <c r="K4" t="n">
-        <v>964.1900000000001</v>
+        <v>1227.78</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>946.0526</v>
+        <v>1264.9342</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5521</v>
+        <v>12.5618</v>
       </c>
       <c r="J5" t="n">
-        <v>27.01</v>
+        <v>27.34</v>
       </c>
       <c r="K5" t="n">
-        <v>5117.18</v>
+        <v>6165.53</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>10.63</v>
+        <v>3.99</v>
       </c>
       <c r="R5" t="n">
-        <v>4350.5048</v>
+        <v>5354.4571</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>12.6182</v>
+        <v>14.8403</v>
       </c>
       <c r="J6" t="n">
-        <v>28.11</v>
+        <v>28.49</v>
       </c>
       <c r="K6" t="n">
-        <v>6367.82</v>
+        <v>7589.5</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.109999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="R6" t="n">
-        <v>3725.948</v>
+        <v>4402.9287</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4678</v>
+        <v>6.5307</v>
       </c>
       <c r="J7" t="n">
-        <v>32.21</v>
+        <v>32.69</v>
       </c>
       <c r="K7" t="n">
-        <v>3162.19</v>
+        <v>3832.26</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.25</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>2555.7814</v>
+        <v>3109.1375</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>63.4101</v>
+        <v>76.0022</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="K8" t="n">
-        <v>5006.11</v>
+        <v>5926.25</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11.93</v>
+        <v>4.33</v>
       </c>
       <c r="R8" t="n">
-        <v>4880.6427</v>
+        <v>5802.3804</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>14.407</v>
+        <v>19.7654</v>
       </c>
       <c r="J9" t="n">
-        <v>17.12</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>4427.99</v>
+        <v>647.46</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>0.37</v>
       </c>
       <c r="R9" t="n">
-        <v>415.5544</v>
+        <v>495.8138</v>
       </c>
     </row>
   </sheetData>
